--- a/optimize/Axiory/covid/MA40/NIKKEI/M5/summary_NIKKEI_M5_MA40_2020_1.xlsx
+++ b/optimize/Axiory/covid/MA40/NIKKEI/M5/summary_NIKKEI_M5_MA40_2020_1.xlsx
@@ -14,18 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>atr_window</t>
+    <t>supertrend.atr_window</t>
   </si>
   <si>
-    <t>atr_multiply</t>
+    <t>supertrend.atr_multiply</t>
   </si>
   <si>
-    <t>ma_wndow</t>
+    <t>supertrend.ma_window</t>
+  </si>
+  <si>
+    <t>supertrend.filter_ma</t>
+  </si>
+  <si>
+    <t>supertrend.atrp_window</t>
+  </si>
+  <si>
+    <t>supertrend.atrp_ma</t>
+  </si>
+  <si>
+    <t>supertrend.atrp_threshold</t>
   </si>
   <si>
     <t>n</t>
@@ -392,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +432,20 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -435,16 +459,28 @@
         <v>40</v>
       </c>
       <c r="E2">
-        <v>2259</v>
+        <v>384</v>
       </c>
       <c r="F2">
-        <v>2340</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>0.5502434705621957</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>2258</v>
+      </c>
+      <c r="J2">
+        <v>2350</v>
+      </c>
+      <c r="K2">
+        <v>0.5504871567759079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -458,16 +494,28 @@
         <v>40</v>
       </c>
       <c r="E3">
-        <v>1619</v>
+        <v>384</v>
       </c>
       <c r="F3">
-        <v>1586</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <v>0.5336627547869055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <v>1618</v>
+      </c>
+      <c r="J3">
+        <v>1596</v>
+      </c>
+      <c r="K3">
+        <v>0.5339925834363412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -481,16 +529,28 @@
         <v>40</v>
       </c>
       <c r="E4">
-        <v>1237</v>
+        <v>384</v>
       </c>
       <c r="F4">
-        <v>3886</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>0.540016168148747</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>1236</v>
+      </c>
+      <c r="J4">
+        <v>3896</v>
+      </c>
+      <c r="K4">
+        <v>0.540453074433657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -504,16 +564,28 @@
         <v>40</v>
       </c>
       <c r="E5">
-        <v>992</v>
+        <v>384</v>
       </c>
       <c r="F5">
-        <v>6750</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>0.5241935483870968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>991</v>
+      </c>
+      <c r="J5">
+        <v>6760</v>
+      </c>
+      <c r="K5">
+        <v>0.5247225025227044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -527,16 +599,28 @@
         <v>40</v>
       </c>
       <c r="E6">
-        <v>760</v>
+        <v>384</v>
       </c>
       <c r="F6">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>0.5078947368421053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>759</v>
+      </c>
+      <c r="J6">
+        <v>184</v>
+      </c>
+      <c r="K6">
+        <v>0.5085638998682477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -550,16 +634,28 @@
         <v>40</v>
       </c>
       <c r="E7">
-        <v>606</v>
+        <v>384</v>
       </c>
       <c r="F7">
-        <v>-2996</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>0.4884488448844885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>605</v>
+      </c>
+      <c r="J7">
+        <v>-2986</v>
+      </c>
+      <c r="K7">
+        <v>0.4892561983471074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -573,16 +669,28 @@
         <v>40</v>
       </c>
       <c r="E8">
-        <v>469</v>
+        <v>384</v>
       </c>
       <c r="F8">
-        <v>2710</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>0.4626865671641791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <v>468</v>
+      </c>
+      <c r="J8">
+        <v>2720</v>
+      </c>
+      <c r="K8">
+        <v>0.4636752136752137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -596,16 +704,28 @@
         <v>40</v>
       </c>
       <c r="E9">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F9">
-        <v>-1614</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>0.4341085271317829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>386</v>
+      </c>
+      <c r="J9">
+        <v>-1604</v>
+      </c>
+      <c r="K9">
+        <v>0.4352331606217616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -619,16 +739,28 @@
         <v>40</v>
       </c>
       <c r="E10">
-        <v>321</v>
+        <v>384</v>
       </c>
       <c r="F10">
-        <v>-6034</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>0.3925233644859813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>320</v>
+      </c>
+      <c r="J10">
+        <v>-6024</v>
+      </c>
+      <c r="K10">
+        <v>0.39375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -642,16 +774,28 @@
         <v>40</v>
       </c>
       <c r="E11">
-        <v>2231</v>
+        <v>384</v>
       </c>
       <c r="F11">
-        <v>2618</v>
+        <v>40</v>
       </c>
       <c r="G11">
-        <v>0.5508740475123263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>2230</v>
+      </c>
+      <c r="J11">
+        <v>2628</v>
+      </c>
+      <c r="K11">
+        <v>0.5511210762331838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -665,16 +809,28 @@
         <v>40</v>
       </c>
       <c r="E12">
-        <v>1599</v>
+        <v>384</v>
       </c>
       <c r="F12">
-        <v>506</v>
+        <v>40</v>
       </c>
       <c r="G12">
-        <v>0.5428392745465916</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <v>1598</v>
+      </c>
+      <c r="J12">
+        <v>516</v>
+      </c>
+      <c r="K12">
+        <v>0.5431789737171464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -688,16 +844,28 @@
         <v>40</v>
       </c>
       <c r="E13">
-        <v>1237</v>
+        <v>384</v>
       </c>
       <c r="F13">
-        <v>4338</v>
+        <v>40</v>
       </c>
       <c r="G13">
-        <v>0.5456750202101859</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>1236</v>
+      </c>
+      <c r="J13">
+        <v>4348</v>
+      </c>
+      <c r="K13">
+        <v>0.5461165048543689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -711,16 +879,28 @@
         <v>40</v>
       </c>
       <c r="E14">
-        <v>971</v>
+        <v>384</v>
       </c>
       <c r="F14">
-        <v>-2282</v>
+        <v>40</v>
       </c>
       <c r="G14">
-        <v>0.5025746652935118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>970</v>
+      </c>
+      <c r="J14">
+        <v>-2272</v>
+      </c>
+      <c r="K14">
+        <v>0.5030927835051546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -734,16 +914,28 @@
         <v>40</v>
       </c>
       <c r="E15">
-        <v>750</v>
+        <v>384</v>
       </c>
       <c r="F15">
-        <v>3008</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>0.5106666666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>749</v>
+      </c>
+      <c r="J15">
+        <v>3018</v>
+      </c>
+      <c r="K15">
+        <v>0.5113484646194927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -757,16 +949,28 @@
         <v>40</v>
       </c>
       <c r="E16">
-        <v>588</v>
+        <v>384</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G16">
-        <v>0.4931972789115646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>587</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>0.4940374787052811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -780,16 +984,28 @@
         <v>40</v>
       </c>
       <c r="E17">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F17">
-        <v>1980</v>
+        <v>40</v>
       </c>
       <c r="G17">
-        <v>0.4720357941834452</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>446</v>
+      </c>
+      <c r="J17">
+        <v>1990</v>
+      </c>
+      <c r="K17">
+        <v>0.4730941704035874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -803,16 +1019,28 @@
         <v>40</v>
       </c>
       <c r="E18">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="F18">
-        <v>-1618</v>
+        <v>40</v>
       </c>
       <c r="G18">
-        <v>0.4464285714285715</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>335</v>
+      </c>
+      <c r="J18">
+        <v>-1608</v>
+      </c>
+      <c r="K18">
+        <v>0.4477611940298508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -826,16 +1054,28 @@
         <v>40</v>
       </c>
       <c r="E19">
-        <v>263</v>
+        <v>384</v>
       </c>
       <c r="F19">
-        <v>2168</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>0.4372623574144487</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>262</v>
+      </c>
+      <c r="J19">
+        <v>2178</v>
+      </c>
+      <c r="K19">
+        <v>0.4389312977099237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -849,16 +1089,28 @@
         <v>40</v>
       </c>
       <c r="E20">
-        <v>2225</v>
+        <v>384</v>
       </c>
       <c r="F20">
-        <v>3124</v>
+        <v>40</v>
       </c>
       <c r="G20">
-        <v>0.5510112359550562</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>2224</v>
+      </c>
+      <c r="J20">
+        <v>3134</v>
+      </c>
+      <c r="K20">
+        <v>0.5512589928057554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -872,16 +1124,28 @@
         <v>40</v>
       </c>
       <c r="E21">
-        <v>1589</v>
+        <v>384</v>
       </c>
       <c r="F21">
-        <v>956</v>
+        <v>40</v>
       </c>
       <c r="G21">
-        <v>0.5305223410950283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>1588</v>
+      </c>
+      <c r="J21">
+        <v>966</v>
+      </c>
+      <c r="K21">
+        <v>0.5308564231738035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -895,16 +1159,28 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <v>1215</v>
+        <v>384</v>
       </c>
       <c r="F22">
-        <v>6972</v>
+        <v>40</v>
       </c>
       <c r="G22">
-        <v>0.551440329218107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>1214</v>
+      </c>
+      <c r="J22">
+        <v>6982</v>
+      </c>
+      <c r="K22">
+        <v>0.5518945634266886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -918,16 +1194,28 @@
         <v>40</v>
       </c>
       <c r="E23">
-        <v>946</v>
+        <v>384</v>
       </c>
       <c r="F23">
-        <v>3394</v>
+        <v>40</v>
       </c>
       <c r="G23">
-        <v>0.514799154334038</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>945</v>
+      </c>
+      <c r="J23">
+        <v>3404</v>
+      </c>
+      <c r="K23">
+        <v>0.5153439153439153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -941,16 +1229,28 @@
         <v>40</v>
       </c>
       <c r="E24">
-        <v>738</v>
+        <v>384</v>
       </c>
       <c r="F24">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="G24">
-        <v>0.521680216802168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>737</v>
+      </c>
+      <c r="J24">
+        <v>364</v>
+      </c>
+      <c r="K24">
+        <v>0.5223880597014925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -964,16 +1264,28 @@
         <v>40</v>
       </c>
       <c r="E25">
-        <v>581</v>
+        <v>384</v>
       </c>
       <c r="F25">
-        <v>-4846</v>
+        <v>40</v>
       </c>
       <c r="G25">
-        <v>0.4802065404475043</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
+      <c r="I25">
+        <v>580</v>
+      </c>
+      <c r="J25">
+        <v>-4836</v>
+      </c>
+      <c r="K25">
+        <v>0.4810344827586207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -987,16 +1299,28 @@
         <v>40</v>
       </c>
       <c r="E26">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="F26">
-        <v>-1368</v>
+        <v>40</v>
       </c>
       <c r="G26">
-        <v>0.4789356984478936</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26">
+        <v>450</v>
+      </c>
+      <c r="J26">
+        <v>-1358</v>
+      </c>
+      <c r="K26">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1010,16 +1334,28 @@
         <v>40</v>
       </c>
       <c r="E27">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="F27">
-        <v>5856</v>
+        <v>40</v>
       </c>
       <c r="G27">
-        <v>0.4835820895522388</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <v>334</v>
+      </c>
+      <c r="J27">
+        <v>5866</v>
+      </c>
+      <c r="K27">
+        <v>0.4850299401197605</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1033,16 +1369,28 @@
         <v>40</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>384</v>
       </c>
       <c r="F28">
-        <v>6742</v>
+        <v>40</v>
       </c>
       <c r="G28">
-        <v>0.4339622641509434</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+      <c r="I28">
+        <v>264</v>
+      </c>
+      <c r="J28">
+        <v>6752</v>
+      </c>
+      <c r="K28">
+        <v>0.4356060606060606</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1056,16 +1404,28 @@
         <v>40</v>
       </c>
       <c r="E29">
-        <v>2217</v>
+        <v>384</v>
       </c>
       <c r="F29">
-        <v>1564</v>
+        <v>40</v>
       </c>
       <c r="G29">
-        <v>0.5457825890843482</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H29">
+        <v>0.2</v>
+      </c>
+      <c r="I29">
+        <v>2216</v>
+      </c>
+      <c r="J29">
+        <v>1574</v>
+      </c>
+      <c r="K29">
+        <v>0.546028880866426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1079,16 +1439,28 @@
         <v>40</v>
       </c>
       <c r="E30">
-        <v>1587</v>
+        <v>384</v>
       </c>
       <c r="F30">
-        <v>986</v>
+        <v>40</v>
       </c>
       <c r="G30">
-        <v>0.5362318840579711</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <v>0.2</v>
+      </c>
+      <c r="I30">
+        <v>1586</v>
+      </c>
+      <c r="J30">
+        <v>996</v>
+      </c>
+      <c r="K30">
+        <v>0.5365699873896596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1102,16 +1474,28 @@
         <v>40</v>
       </c>
       <c r="E31">
-        <v>1203</v>
+        <v>384</v>
       </c>
       <c r="F31">
-        <v>6946</v>
+        <v>40</v>
       </c>
       <c r="G31">
-        <v>0.5511221945137157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <v>0.2</v>
+      </c>
+      <c r="I31">
+        <v>1202</v>
+      </c>
+      <c r="J31">
+        <v>6956</v>
+      </c>
+      <c r="K31">
+        <v>0.5515806988352745</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1125,16 +1509,28 @@
         <v>40</v>
       </c>
       <c r="E32">
-        <v>936</v>
+        <v>384</v>
       </c>
       <c r="F32">
-        <v>6636</v>
+        <v>40</v>
       </c>
       <c r="G32">
-        <v>0.5405982905982906</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H32">
+        <v>0.2</v>
+      </c>
+      <c r="I32">
+        <v>935</v>
+      </c>
+      <c r="J32">
+        <v>6646</v>
+      </c>
+      <c r="K32">
+        <v>0.5411764705882353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1148,16 +1544,28 @@
         <v>40</v>
       </c>
       <c r="E33">
-        <v>724</v>
+        <v>384</v>
       </c>
       <c r="F33">
-        <v>4084</v>
+        <v>40</v>
       </c>
       <c r="G33">
-        <v>0.5303867403314917</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H33">
+        <v>0.2</v>
+      </c>
+      <c r="I33">
+        <v>723</v>
+      </c>
+      <c r="J33">
+        <v>4094</v>
+      </c>
+      <c r="K33">
+        <v>0.5311203319502075</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1171,16 +1579,28 @@
         <v>40</v>
       </c>
       <c r="E34">
-        <v>585</v>
+        <v>384</v>
       </c>
       <c r="F34">
-        <v>2396</v>
+        <v>40</v>
       </c>
       <c r="G34">
-        <v>0.5025641025641026</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H34">
+        <v>0.2</v>
+      </c>
+      <c r="I34">
+        <v>584</v>
+      </c>
+      <c r="J34">
+        <v>2406</v>
+      </c>
+      <c r="K34">
+        <v>0.5034246575342466</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1194,16 +1614,28 @@
         <v>40</v>
       </c>
       <c r="E35">
-        <v>457</v>
+        <v>384</v>
       </c>
       <c r="F35">
-        <v>738</v>
+        <v>40</v>
       </c>
       <c r="G35">
-        <v>0.4573304157549234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>0.2</v>
+      </c>
+      <c r="I35">
+        <v>456</v>
+      </c>
+      <c r="J35">
+        <v>748</v>
+      </c>
+      <c r="K35">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1217,16 +1649,28 @@
         <v>40</v>
       </c>
       <c r="E36">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="F36">
-        <v>9578</v>
+        <v>40</v>
       </c>
       <c r="G36">
-        <v>0.4683908045977012</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <v>0.2</v>
+      </c>
+      <c r="I36">
+        <v>347</v>
+      </c>
+      <c r="J36">
+        <v>9588</v>
+      </c>
+      <c r="K36">
+        <v>0.4697406340057637</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1240,16 +1684,28 @@
         <v>40</v>
       </c>
       <c r="E37">
-        <v>282</v>
+        <v>384</v>
       </c>
       <c r="F37">
-        <v>10646</v>
+        <v>40</v>
       </c>
       <c r="G37">
-        <v>0.475177304964539</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H37">
+        <v>0.2</v>
+      </c>
+      <c r="I37">
+        <v>281</v>
+      </c>
+      <c r="J37">
+        <v>10656</v>
+      </c>
+      <c r="K37">
+        <v>0.4768683274021353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1263,16 +1719,28 @@
         <v>40</v>
       </c>
       <c r="E38">
-        <v>2207</v>
+        <v>384</v>
       </c>
       <c r="F38">
-        <v>934</v>
+        <v>40</v>
       </c>
       <c r="G38">
-        <v>0.5450838241957409</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H38">
+        <v>0.2</v>
+      </c>
+      <c r="I38">
+        <v>2206</v>
+      </c>
+      <c r="J38">
+        <v>944</v>
+      </c>
+      <c r="K38">
+        <v>0.5453309156844969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1286,16 +1754,28 @@
         <v>40</v>
       </c>
       <c r="E39">
-        <v>1595</v>
+        <v>384</v>
       </c>
       <c r="F39">
-        <v>2002</v>
+        <v>40</v>
       </c>
       <c r="G39">
-        <v>0.5329153605015674</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H39">
+        <v>0.2</v>
+      </c>
+      <c r="I39">
+        <v>1594</v>
+      </c>
+      <c r="J39">
+        <v>2012</v>
+      </c>
+      <c r="K39">
+        <v>0.5332496863237139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1309,16 +1789,28 @@
         <v>40</v>
       </c>
       <c r="E40">
-        <v>1199</v>
+        <v>384</v>
       </c>
       <c r="F40">
-        <v>2988</v>
+        <v>40</v>
       </c>
       <c r="G40">
-        <v>0.5229357798165137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H40">
+        <v>0.2</v>
+      </c>
+      <c r="I40">
+        <v>1198</v>
+      </c>
+      <c r="J40">
+        <v>2998</v>
+      </c>
+      <c r="K40">
+        <v>0.5233722871452421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1332,16 +1824,28 @@
         <v>40</v>
       </c>
       <c r="E41">
-        <v>930</v>
+        <v>384</v>
       </c>
       <c r="F41">
-        <v>9866</v>
+        <v>40</v>
       </c>
       <c r="G41">
-        <v>0.5161290322580645</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <v>0.2</v>
+      </c>
+      <c r="I41">
+        <v>929</v>
+      </c>
+      <c r="J41">
+        <v>9876</v>
+      </c>
+      <c r="K41">
+        <v>0.5166846071044133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1355,16 +1859,28 @@
         <v>40</v>
       </c>
       <c r="E42">
-        <v>712</v>
+        <v>384</v>
       </c>
       <c r="F42">
-        <v>9310</v>
+        <v>40</v>
       </c>
       <c r="G42">
-        <v>0.5393258426966292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <v>0.2</v>
+      </c>
+      <c r="I42">
+        <v>711</v>
+      </c>
+      <c r="J42">
+        <v>9320</v>
+      </c>
+      <c r="K42">
+        <v>0.540084388185654</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1378,16 +1894,28 @@
         <v>40</v>
       </c>
       <c r="E43">
-        <v>573</v>
+        <v>384</v>
       </c>
       <c r="F43">
-        <v>4978</v>
+        <v>40</v>
       </c>
       <c r="G43">
-        <v>0.4973821989528796</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H43">
+        <v>0.2</v>
+      </c>
+      <c r="I43">
+        <v>572</v>
+      </c>
+      <c r="J43">
+        <v>4988</v>
+      </c>
+      <c r="K43">
+        <v>0.4982517482517482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1401,16 +1929,28 @@
         <v>40</v>
       </c>
       <c r="E44">
-        <v>455</v>
+        <v>384</v>
       </c>
       <c r="F44">
-        <v>5568</v>
+        <v>40</v>
       </c>
       <c r="G44">
-        <v>0.4703296703296703</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H44">
+        <v>0.2</v>
+      </c>
+      <c r="I44">
+        <v>454</v>
+      </c>
+      <c r="J44">
+        <v>5578</v>
+      </c>
+      <c r="K44">
+        <v>0.4713656387665198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1424,16 +1964,28 @@
         <v>40</v>
       </c>
       <c r="E45">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="F45">
-        <v>10342</v>
+        <v>40</v>
       </c>
       <c r="G45">
-        <v>0.4702549575070821</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H45">
+        <v>0.2</v>
+      </c>
+      <c r="I45">
+        <v>352</v>
+      </c>
+      <c r="J45">
+        <v>10352</v>
+      </c>
+      <c r="K45">
+        <v>0.4715909090909091</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1447,16 +1999,28 @@
         <v>40</v>
       </c>
       <c r="E46">
-        <v>278</v>
+        <v>384</v>
       </c>
       <c r="F46">
-        <v>11132</v>
+        <v>40</v>
       </c>
       <c r="G46">
-        <v>0.4964028776978417</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <v>0.2</v>
+      </c>
+      <c r="I46">
+        <v>277</v>
+      </c>
+      <c r="J46">
+        <v>11142</v>
+      </c>
+      <c r="K46">
+        <v>0.4981949458483754</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1470,16 +2034,28 @@
         <v>40</v>
       </c>
       <c r="E47">
-        <v>2213</v>
+        <v>384</v>
       </c>
       <c r="F47">
-        <v>438</v>
+        <v>40</v>
       </c>
       <c r="G47">
-        <v>0.5399909624943515</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H47">
+        <v>0.2</v>
+      </c>
+      <c r="I47">
+        <v>2212</v>
+      </c>
+      <c r="J47">
+        <v>448</v>
+      </c>
+      <c r="K47">
+        <v>0.5402350813743219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1493,16 +2069,28 @@
         <v>40</v>
       </c>
       <c r="E48">
-        <v>1587</v>
+        <v>384</v>
       </c>
       <c r="F48">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="G48">
-        <v>0.5425330812854442</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H48">
+        <v>0.2</v>
+      </c>
+      <c r="I48">
+        <v>1586</v>
+      </c>
+      <c r="J48">
+        <v>300</v>
+      </c>
+      <c r="K48">
+        <v>0.542875157629256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1516,16 +2104,28 @@
         <v>40</v>
       </c>
       <c r="E49">
-        <v>1185</v>
+        <v>384</v>
       </c>
       <c r="F49">
-        <v>2120</v>
+        <v>40</v>
       </c>
       <c r="G49">
-        <v>0.5122362869198313</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H49">
+        <v>0.2</v>
+      </c>
+      <c r="I49">
+        <v>1184</v>
+      </c>
+      <c r="J49">
+        <v>2130</v>
+      </c>
+      <c r="K49">
+        <v>0.512668918918919</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1539,16 +2139,28 @@
         <v>40</v>
       </c>
       <c r="E50">
-        <v>930</v>
+        <v>384</v>
       </c>
       <c r="F50">
-        <v>7684</v>
+        <v>40</v>
       </c>
       <c r="G50">
-        <v>0.524731182795699</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H50">
+        <v>0.2</v>
+      </c>
+      <c r="I50">
+        <v>929</v>
+      </c>
+      <c r="J50">
+        <v>7694</v>
+      </c>
+      <c r="K50">
+        <v>0.5252960172228203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1562,16 +2174,28 @@
         <v>40</v>
       </c>
       <c r="E51">
-        <v>722</v>
+        <v>384</v>
       </c>
       <c r="F51">
-        <v>6158</v>
+        <v>40</v>
       </c>
       <c r="G51">
-        <v>0.5373961218836565</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H51">
+        <v>0.2</v>
+      </c>
+      <c r="I51">
+        <v>721</v>
+      </c>
+      <c r="J51">
+        <v>6168</v>
+      </c>
+      <c r="K51">
+        <v>0.5381414701803051</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1585,16 +2209,28 @@
         <v>40</v>
       </c>
       <c r="E52">
-        <v>581</v>
+        <v>384</v>
       </c>
       <c r="F52">
-        <v>5702</v>
+        <v>40</v>
       </c>
       <c r="G52">
-        <v>0.5008605851979346</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H52">
+        <v>0.2</v>
+      </c>
+      <c r="I52">
+        <v>580</v>
+      </c>
+      <c r="J52">
+        <v>5712</v>
+      </c>
+      <c r="K52">
+        <v>0.5017241379310344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1608,16 +2244,28 @@
         <v>40</v>
       </c>
       <c r="E53">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="F53">
-        <v>-1162</v>
+        <v>40</v>
       </c>
       <c r="G53">
-        <v>0.4496788008565311</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H53">
+        <v>0.2</v>
+      </c>
+      <c r="I53">
+        <v>466</v>
+      </c>
+      <c r="J53">
+        <v>-1152</v>
+      </c>
+      <c r="K53">
+        <v>0.4506437768240343</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1631,16 +2279,28 @@
         <v>40</v>
       </c>
       <c r="E54">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="F54">
-        <v>12222</v>
+        <v>40</v>
       </c>
       <c r="G54">
-        <v>0.4733893557422969</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H54">
+        <v>0.2</v>
+      </c>
+      <c r="I54">
+        <v>356</v>
+      </c>
+      <c r="J54">
+        <v>12232</v>
+      </c>
+      <c r="K54">
+        <v>0.4747191011235955</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1654,16 +2314,28 @@
         <v>40</v>
       </c>
       <c r="E55">
-        <v>293</v>
+        <v>384</v>
       </c>
       <c r="F55">
-        <v>13608</v>
+        <v>40</v>
       </c>
       <c r="G55">
-        <v>0.5119453924914675</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H55">
+        <v>0.2</v>
+      </c>
+      <c r="I55">
+        <v>292</v>
+      </c>
+      <c r="J55">
+        <v>13618</v>
+      </c>
+      <c r="K55">
+        <v>0.5136986301369864</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1677,16 +2349,28 @@
         <v>40</v>
       </c>
       <c r="E56">
-        <v>2189</v>
+        <v>384</v>
       </c>
       <c r="F56">
-        <v>2326</v>
+        <v>40</v>
       </c>
       <c r="G56">
-        <v>0.5459113750571037</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H56">
+        <v>0.2</v>
+      </c>
+      <c r="I56">
+        <v>2188</v>
+      </c>
+      <c r="J56">
+        <v>2336</v>
+      </c>
+      <c r="K56">
+        <v>0.5461608775137111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1700,16 +2384,28 @@
         <v>40</v>
       </c>
       <c r="E57">
-        <v>1593</v>
+        <v>384</v>
       </c>
       <c r="F57">
-        <v>1810</v>
+        <v>40</v>
       </c>
       <c r="G57">
-        <v>0.5423728813559322</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H57">
+        <v>0.2</v>
+      </c>
+      <c r="I57">
+        <v>1592</v>
+      </c>
+      <c r="J57">
+        <v>1820</v>
+      </c>
+      <c r="K57">
+        <v>0.542713567839196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1723,16 +2419,28 @@
         <v>40</v>
       </c>
       <c r="E58">
-        <v>1190</v>
+        <v>384</v>
       </c>
       <c r="F58">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="G58">
-        <v>0.5210084033613446</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H58">
+        <v>0.2</v>
+      </c>
+      <c r="I58">
+        <v>1189</v>
+      </c>
+      <c r="J58">
+        <v>108</v>
+      </c>
+      <c r="K58">
+        <v>0.5214465937762826</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1746,16 +2454,28 @@
         <v>40</v>
       </c>
       <c r="E59">
-        <v>930</v>
+        <v>384</v>
       </c>
       <c r="F59">
-        <v>5766</v>
+        <v>40</v>
       </c>
       <c r="G59">
-        <v>0.5032258064516129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H59">
+        <v>0.2</v>
+      </c>
+      <c r="I59">
+        <v>929</v>
+      </c>
+      <c r="J59">
+        <v>5776</v>
+      </c>
+      <c r="K59">
+        <v>0.503767491926803</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1769,16 +2489,28 @@
         <v>40</v>
       </c>
       <c r="E60">
-        <v>720</v>
+        <v>384</v>
       </c>
       <c r="F60">
-        <v>9750</v>
+        <v>40</v>
       </c>
       <c r="G60">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H60">
+        <v>0.2</v>
+      </c>
+      <c r="I60">
+        <v>719</v>
+      </c>
+      <c r="J60">
+        <v>9760</v>
+      </c>
+      <c r="K60">
+        <v>0.5340751043115438</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1792,16 +2524,28 @@
         <v>40</v>
       </c>
       <c r="E61">
-        <v>583</v>
+        <v>384</v>
       </c>
       <c r="F61">
-        <v>4310</v>
+        <v>40</v>
       </c>
       <c r="G61">
-        <v>0.4957118353344768</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H61">
+        <v>0.2</v>
+      </c>
+      <c r="I61">
+        <v>582</v>
+      </c>
+      <c r="J61">
+        <v>4320</v>
+      </c>
+      <c r="K61">
+        <v>0.4965635738831615</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1815,16 +2559,28 @@
         <v>40</v>
       </c>
       <c r="E62">
-        <v>463</v>
+        <v>384</v>
       </c>
       <c r="F62">
-        <v>-308</v>
+        <v>40</v>
       </c>
       <c r="G62">
-        <v>0.4535637149028078</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H62">
+        <v>0.2</v>
+      </c>
+      <c r="I62">
+        <v>462</v>
+      </c>
+      <c r="J62">
+        <v>-298</v>
+      </c>
+      <c r="K62">
+        <v>0.4545454545454545</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1838,16 +2594,28 @@
         <v>40</v>
       </c>
       <c r="E63">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F63">
-        <v>7598</v>
+        <v>40</v>
       </c>
       <c r="G63">
-        <v>0.4878048780487805</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H63">
+        <v>0.2</v>
+      </c>
+      <c r="I63">
+        <v>368</v>
+      </c>
+      <c r="J63">
+        <v>7608</v>
+      </c>
+      <c r="K63">
+        <v>0.4891304347826087</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1861,16 +2629,28 @@
         <v>40</v>
       </c>
       <c r="E64">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="F64">
-        <v>12352</v>
+        <v>40</v>
       </c>
       <c r="G64">
-        <v>0.5154639175257731</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H64">
+        <v>0.2</v>
+      </c>
+      <c r="I64">
+        <v>290</v>
+      </c>
+      <c r="J64">
+        <v>12362</v>
+      </c>
+      <c r="K64">
+        <v>0.5172413793103449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1884,16 +2664,28 @@
         <v>40</v>
       </c>
       <c r="E65">
-        <v>2207</v>
+        <v>384</v>
       </c>
       <c r="F65">
-        <v>2898</v>
+        <v>40</v>
       </c>
       <c r="G65">
-        <v>0.5478024467603081</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H65">
+        <v>0.2</v>
+      </c>
+      <c r="I65">
+        <v>2206</v>
+      </c>
+      <c r="J65">
+        <v>2908</v>
+      </c>
+      <c r="K65">
+        <v>0.5480507706255666</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1907,16 +2699,28 @@
         <v>40</v>
       </c>
       <c r="E66">
-        <v>1587</v>
+        <v>384</v>
       </c>
       <c r="F66">
-        <v>1812</v>
+        <v>40</v>
       </c>
       <c r="G66">
-        <v>0.5349716446124764</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H66">
+        <v>0.2</v>
+      </c>
+      <c r="I66">
+        <v>1586</v>
+      </c>
+      <c r="J66">
+        <v>1822</v>
+      </c>
+      <c r="K66">
+        <v>0.5353089533417402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1930,16 +2734,28 @@
         <v>40</v>
       </c>
       <c r="E67">
-        <v>1178</v>
+        <v>384</v>
       </c>
       <c r="F67">
-        <v>2024</v>
+        <v>40</v>
       </c>
       <c r="G67">
-        <v>0.5271646859083192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H67">
+        <v>0.2</v>
+      </c>
+      <c r="I67">
+        <v>1177</v>
+      </c>
+      <c r="J67">
+        <v>2034</v>
+      </c>
+      <c r="K67">
+        <v>0.5276125743415463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1953,16 +2769,28 @@
         <v>40</v>
       </c>
       <c r="E68">
-        <v>934</v>
+        <v>384</v>
       </c>
       <c r="F68">
-        <v>4946</v>
+        <v>40</v>
       </c>
       <c r="G68">
-        <v>0.4828693790149893</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H68">
+        <v>0.2</v>
+      </c>
+      <c r="I68">
+        <v>933</v>
+      </c>
+      <c r="J68">
+        <v>4956</v>
+      </c>
+      <c r="K68">
+        <v>0.4833869239013934</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1976,16 +2804,28 @@
         <v>40</v>
       </c>
       <c r="E69">
-        <v>710</v>
+        <v>384</v>
       </c>
       <c r="F69">
-        <v>8852</v>
+        <v>40</v>
       </c>
       <c r="G69">
-        <v>0.5394366197183098</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H69">
+        <v>0.2</v>
+      </c>
+      <c r="I69">
+        <v>709</v>
+      </c>
+      <c r="J69">
+        <v>8862</v>
+      </c>
+      <c r="K69">
+        <v>0.5401974612129761</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1999,16 +2839,28 @@
         <v>40</v>
       </c>
       <c r="E70">
-        <v>589</v>
+        <v>384</v>
       </c>
       <c r="F70">
-        <v>1572</v>
+        <v>40</v>
       </c>
       <c r="G70">
-        <v>0.5008488964346349</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H70">
+        <v>0.2</v>
+      </c>
+      <c r="I70">
+        <v>588</v>
+      </c>
+      <c r="J70">
+        <v>1582</v>
+      </c>
+      <c r="K70">
+        <v>0.5017006802721088</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2022,16 +2874,28 @@
         <v>40</v>
       </c>
       <c r="E71">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="F71">
-        <v>3092</v>
+        <v>40</v>
       </c>
       <c r="G71">
-        <v>0.4753747323340471</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H71">
+        <v>0.2</v>
+      </c>
+      <c r="I71">
+        <v>466</v>
+      </c>
+      <c r="J71">
+        <v>3102</v>
+      </c>
+      <c r="K71">
+        <v>0.4763948497854077</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2045,16 +2909,28 @@
         <v>40</v>
       </c>
       <c r="E72">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F72">
-        <v>7100</v>
+        <v>40</v>
       </c>
       <c r="G72">
-        <v>0.4776902887139108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H72">
+        <v>0.2</v>
+      </c>
+      <c r="I72">
+        <v>380</v>
+      </c>
+      <c r="J72">
+        <v>7110</v>
+      </c>
+      <c r="K72">
+        <v>0.4789473684210526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2068,16 +2944,28 @@
         <v>40</v>
       </c>
       <c r="E73">
-        <v>303</v>
+        <v>384</v>
       </c>
       <c r="F73">
-        <v>8740</v>
+        <v>40</v>
       </c>
       <c r="G73">
-        <v>0.5016501650165016</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H73">
+        <v>0.2</v>
+      </c>
+      <c r="I73">
+        <v>302</v>
+      </c>
+      <c r="J73">
+        <v>8750</v>
+      </c>
+      <c r="K73">
+        <v>0.5033112582781457</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2091,16 +2979,28 @@
         <v>40</v>
       </c>
       <c r="E74">
-        <v>2191</v>
+        <v>384</v>
       </c>
       <c r="F74">
-        <v>4588</v>
+        <v>40</v>
       </c>
       <c r="G74">
-        <v>0.550890004564126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H74">
+        <v>0.2</v>
+      </c>
+      <c r="I74">
+        <v>2190</v>
+      </c>
+      <c r="J74">
+        <v>4598</v>
+      </c>
+      <c r="K74">
+        <v>0.5511415525114155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2114,16 +3014,28 @@
         <v>40</v>
       </c>
       <c r="E75">
-        <v>1573</v>
+        <v>384</v>
       </c>
       <c r="F75">
-        <v>2094</v>
+        <v>40</v>
       </c>
       <c r="G75">
-        <v>0.5390972663699937</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H75">
+        <v>0.2</v>
+      </c>
+      <c r="I75">
+        <v>1572</v>
+      </c>
+      <c r="J75">
+        <v>2104</v>
+      </c>
+      <c r="K75">
+        <v>0.539440203562341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2137,16 +3049,28 @@
         <v>40</v>
       </c>
       <c r="E76">
-        <v>1190</v>
+        <v>384</v>
       </c>
       <c r="F76">
-        <v>1294</v>
+        <v>40</v>
       </c>
       <c r="G76">
-        <v>0.515126050420168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H76">
+        <v>0.2</v>
+      </c>
+      <c r="I76">
+        <v>1189</v>
+      </c>
+      <c r="J76">
+        <v>1304</v>
+      </c>
+      <c r="K76">
+        <v>0.5155592935239697</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2160,16 +3084,28 @@
         <v>40</v>
       </c>
       <c r="E77">
-        <v>932</v>
+        <v>384</v>
       </c>
       <c r="F77">
-        <v>4756</v>
+        <v>40</v>
       </c>
       <c r="G77">
-        <v>0.4881974248927038</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H77">
+        <v>0.2</v>
+      </c>
+      <c r="I77">
+        <v>931</v>
+      </c>
+      <c r="J77">
+        <v>4766</v>
+      </c>
+      <c r="K77">
+        <v>0.4887218045112782</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2183,16 +3119,28 @@
         <v>40</v>
       </c>
       <c r="E78">
-        <v>716</v>
+        <v>384</v>
       </c>
       <c r="F78">
-        <v>9010</v>
+        <v>40</v>
       </c>
       <c r="G78">
-        <v>0.5251396648044693</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H78">
+        <v>0.2</v>
+      </c>
+      <c r="I78">
+        <v>715</v>
+      </c>
+      <c r="J78">
+        <v>9020</v>
+      </c>
+      <c r="K78">
+        <v>0.5258741258741259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2206,16 +3154,28 @@
         <v>40</v>
       </c>
       <c r="E79">
-        <v>585</v>
+        <v>384</v>
       </c>
       <c r="F79">
-        <v>566</v>
+        <v>40</v>
       </c>
       <c r="G79">
-        <v>0.4923076923076923</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H79">
+        <v>0.2</v>
+      </c>
+      <c r="I79">
+        <v>584</v>
+      </c>
+      <c r="J79">
+        <v>576</v>
+      </c>
+      <c r="K79">
+        <v>0.4931506849315068</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2229,16 +3189,28 @@
         <v>40</v>
       </c>
       <c r="E80">
-        <v>481</v>
+        <v>384</v>
       </c>
       <c r="F80">
-        <v>5174</v>
+        <v>40</v>
       </c>
       <c r="G80">
-        <v>0.4823284823284824</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H80">
+        <v>0.2</v>
+      </c>
+      <c r="I80">
+        <v>480</v>
+      </c>
+      <c r="J80">
+        <v>5184</v>
+      </c>
+      <c r="K80">
+        <v>0.4833333333333333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2252,16 +3224,28 @@
         <v>40</v>
       </c>
       <c r="E81">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F81">
-        <v>3798</v>
+        <v>40</v>
       </c>
       <c r="G81">
-        <v>0.4444444444444444</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H81">
+        <v>0.2</v>
+      </c>
+      <c r="I81">
+        <v>386</v>
+      </c>
+      <c r="J81">
+        <v>3808</v>
+      </c>
+      <c r="K81">
+        <v>0.4455958549222798</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2275,16 +3259,28 @@
         <v>40</v>
       </c>
       <c r="E82">
-        <v>311</v>
+        <v>384</v>
       </c>
       <c r="F82">
-        <v>6126</v>
+        <v>40</v>
       </c>
       <c r="G82">
-        <v>0.4823151125401929</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H82">
+        <v>0.2</v>
+      </c>
+      <c r="I82">
+        <v>310</v>
+      </c>
+      <c r="J82">
+        <v>6136</v>
+      </c>
+      <c r="K82">
+        <v>0.4838709677419355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2298,16 +3294,28 @@
         <v>40</v>
       </c>
       <c r="E83">
-        <v>2193</v>
+        <v>384</v>
       </c>
       <c r="F83">
-        <v>3490</v>
+        <v>40</v>
       </c>
       <c r="G83">
-        <v>0.5554035567715458</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H83">
+        <v>0.2</v>
+      </c>
+      <c r="I83">
+        <v>2192</v>
+      </c>
+      <c r="J83">
+        <v>3500</v>
+      </c>
+      <c r="K83">
+        <v>0.5556569343065694</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2321,16 +3329,28 @@
         <v>40</v>
       </c>
       <c r="E84">
-        <v>1575</v>
+        <v>384</v>
       </c>
       <c r="F84">
-        <v>3248</v>
+        <v>40</v>
       </c>
       <c r="G84">
-        <v>0.5371428571428571</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H84">
+        <v>0.2</v>
+      </c>
+      <c r="I84">
+        <v>1574</v>
+      </c>
+      <c r="J84">
+        <v>3258</v>
+      </c>
+      <c r="K84">
+        <v>0.5374841168996188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2344,16 +3364,28 @@
         <v>40</v>
       </c>
       <c r="E85">
-        <v>1184</v>
+        <v>384</v>
       </c>
       <c r="F85">
-        <v>3988</v>
+        <v>40</v>
       </c>
       <c r="G85">
-        <v>0.5253378378378378</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H85">
+        <v>0.2</v>
+      </c>
+      <c r="I85">
+        <v>1183</v>
+      </c>
+      <c r="J85">
+        <v>3998</v>
+      </c>
+      <c r="K85">
+        <v>0.525781910397295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2367,16 +3399,28 @@
         <v>40</v>
       </c>
       <c r="E86">
-        <v>930</v>
+        <v>384</v>
       </c>
       <c r="F86">
-        <v>7364</v>
+        <v>40</v>
       </c>
       <c r="G86">
-        <v>0.4967741935483871</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H86">
+        <v>0.2</v>
+      </c>
+      <c r="I86">
+        <v>929</v>
+      </c>
+      <c r="J86">
+        <v>7374</v>
+      </c>
+      <c r="K86">
+        <v>0.4973089343379978</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2390,16 +3434,28 @@
         <v>40</v>
       </c>
       <c r="E87">
-        <v>714</v>
+        <v>384</v>
       </c>
       <c r="F87">
-        <v>7050</v>
+        <v>40</v>
       </c>
       <c r="G87">
-        <v>0.5028011204481793</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H87">
+        <v>0.2</v>
+      </c>
+      <c r="I87">
+        <v>713</v>
+      </c>
+      <c r="J87">
+        <v>7060</v>
+      </c>
+      <c r="K87">
+        <v>0.5035063113604488</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2413,16 +3469,28 @@
         <v>40</v>
       </c>
       <c r="E88">
-        <v>587</v>
+        <v>384</v>
       </c>
       <c r="F88">
-        <v>-3116</v>
+        <v>40</v>
       </c>
       <c r="G88">
-        <v>0.4718909710391823</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H88">
+        <v>0.2</v>
+      </c>
+      <c r="I88">
+        <v>586</v>
+      </c>
+      <c r="J88">
+        <v>-3106</v>
+      </c>
+      <c r="K88">
+        <v>0.4726962457337884</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2436,16 +3504,28 @@
         <v>40</v>
       </c>
       <c r="E89">
-        <v>483</v>
+        <v>384</v>
       </c>
       <c r="F89">
-        <v>3960</v>
+        <v>40</v>
       </c>
       <c r="G89">
-        <v>0.4968944099378882</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H89">
+        <v>0.2</v>
+      </c>
+      <c r="I89">
+        <v>482</v>
+      </c>
+      <c r="J89">
+        <v>3970</v>
+      </c>
+      <c r="K89">
+        <v>0.4979253112033195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2459,16 +3539,28 @@
         <v>40</v>
       </c>
       <c r="E90">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="F90">
-        <v>-992</v>
+        <v>40</v>
       </c>
       <c r="G90">
-        <v>0.4508816120906801</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H90">
+        <v>0.2</v>
+      </c>
+      <c r="I90">
+        <v>396</v>
+      </c>
+      <c r="J90">
+        <v>-982</v>
+      </c>
+      <c r="K90">
+        <v>0.452020202020202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2482,16 +3574,28 @@
         <v>40</v>
       </c>
       <c r="E91">
-        <v>325</v>
+        <v>384</v>
       </c>
       <c r="F91">
-        <v>7062</v>
+        <v>40</v>
       </c>
       <c r="G91">
-        <v>0.4892307692307692</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H91">
+        <v>0.2</v>
+      </c>
+      <c r="I91">
+        <v>324</v>
+      </c>
+      <c r="J91">
+        <v>7072</v>
+      </c>
+      <c r="K91">
+        <v>0.4907407407407408</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2505,16 +3609,28 @@
         <v>40</v>
       </c>
       <c r="E92">
-        <v>2183</v>
+        <v>384</v>
       </c>
       <c r="F92">
-        <v>4538</v>
+        <v>40</v>
       </c>
       <c r="G92">
-        <v>0.5570316078790655</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H92">
+        <v>0.2</v>
+      </c>
+      <c r="I92">
+        <v>2182</v>
+      </c>
+      <c r="J92">
+        <v>4548</v>
+      </c>
+      <c r="K92">
+        <v>0.5572868927589367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2528,16 +3644,28 @@
         <v>40</v>
       </c>
       <c r="E93">
-        <v>1577</v>
+        <v>384</v>
       </c>
       <c r="F93">
-        <v>3184</v>
+        <v>40</v>
       </c>
       <c r="G93">
-        <v>0.5370957514267597</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H93">
+        <v>0.2</v>
+      </c>
+      <c r="I93">
+        <v>1576</v>
+      </c>
+      <c r="J93">
+        <v>3194</v>
+      </c>
+      <c r="K93">
+        <v>0.5374365482233503</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2551,16 +3679,28 @@
         <v>40</v>
       </c>
       <c r="E94">
-        <v>1200</v>
+        <v>384</v>
       </c>
       <c r="F94">
-        <v>-2014</v>
+        <v>40</v>
       </c>
       <c r="G94">
-        <v>0.5033333333333333</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H94">
+        <v>0.2</v>
+      </c>
+      <c r="I94">
+        <v>1199</v>
+      </c>
+      <c r="J94">
+        <v>-2004</v>
+      </c>
+      <c r="K94">
+        <v>0.5037531276063386</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2574,16 +3714,28 @@
         <v>40</v>
       </c>
       <c r="E95">
-        <v>932</v>
+        <v>384</v>
       </c>
       <c r="F95">
-        <v>6502</v>
+        <v>40</v>
       </c>
       <c r="G95">
-        <v>0.5085836909871244</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H95">
+        <v>0.2</v>
+      </c>
+      <c r="I95">
+        <v>931</v>
+      </c>
+      <c r="J95">
+        <v>6512</v>
+      </c>
+      <c r="K95">
+        <v>0.5091299677765844</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2597,16 +3749,28 @@
         <v>40</v>
       </c>
       <c r="E96">
-        <v>724</v>
+        <v>384</v>
       </c>
       <c r="F96">
-        <v>6610</v>
+        <v>40</v>
       </c>
       <c r="G96">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H96">
+        <v>0.2</v>
+      </c>
+      <c r="I96">
+        <v>723</v>
+      </c>
+      <c r="J96">
+        <v>6620</v>
+      </c>
+      <c r="K96">
+        <v>0.5006915629322268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2620,16 +3784,28 @@
         <v>40</v>
       </c>
       <c r="E97">
-        <v>587</v>
+        <v>384</v>
       </c>
       <c r="F97">
-        <v>3682</v>
+        <v>40</v>
       </c>
       <c r="G97">
-        <v>0.4752981260647359</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H97">
+        <v>0.2</v>
+      </c>
+      <c r="I97">
+        <v>586</v>
+      </c>
+      <c r="J97">
+        <v>3692</v>
+      </c>
+      <c r="K97">
+        <v>0.4761092150170648</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2643,16 +3819,28 @@
         <v>40</v>
       </c>
       <c r="E98">
-        <v>485</v>
+        <v>384</v>
       </c>
       <c r="F98">
-        <v>4524</v>
+        <v>40</v>
       </c>
       <c r="G98">
-        <v>0.4907216494845361</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H98">
+        <v>0.2</v>
+      </c>
+      <c r="I98">
+        <v>484</v>
+      </c>
+      <c r="J98">
+        <v>4534</v>
+      </c>
+      <c r="K98">
+        <v>0.4917355371900827</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2666,16 +3854,28 @@
         <v>40</v>
       </c>
       <c r="E99">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="F99">
-        <v>-5222</v>
+        <v>40</v>
       </c>
       <c r="G99">
-        <v>0.4246913580246914</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H99">
+        <v>0.2</v>
+      </c>
+      <c r="I99">
+        <v>404</v>
+      </c>
+      <c r="J99">
+        <v>-5212</v>
+      </c>
+      <c r="K99">
+        <v>0.4257425742574257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2689,16 +3889,28 @@
         <v>40</v>
       </c>
       <c r="E100">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="F100">
-        <v>6170</v>
+        <v>40</v>
       </c>
       <c r="G100">
-        <v>0.4836795252225519</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H100">
+        <v>0.2</v>
+      </c>
+      <c r="I100">
+        <v>336</v>
+      </c>
+      <c r="J100">
+        <v>6180</v>
+      </c>
+      <c r="K100">
+        <v>0.4851190476190476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2712,16 +3924,28 @@
         <v>40</v>
       </c>
       <c r="E101">
-        <v>2191</v>
+        <v>384</v>
       </c>
       <c r="F101">
-        <v>4774</v>
+        <v>40</v>
       </c>
       <c r="G101">
-        <v>0.5490643541761753</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H101">
+        <v>0.2</v>
+      </c>
+      <c r="I101">
+        <v>2190</v>
+      </c>
+      <c r="J101">
+        <v>4784</v>
+      </c>
+      <c r="K101">
+        <v>0.5493150684931507</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2735,16 +3959,28 @@
         <v>40</v>
       </c>
       <c r="E102">
-        <v>1575</v>
+        <v>384</v>
       </c>
       <c r="F102">
-        <v>2226</v>
+        <v>40</v>
       </c>
       <c r="G102">
-        <v>0.5371428571428571</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H102">
+        <v>0.2</v>
+      </c>
+      <c r="I102">
+        <v>1574</v>
+      </c>
+      <c r="J102">
+        <v>2236</v>
+      </c>
+      <c r="K102">
+        <v>0.5374841168996188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2758,16 +3994,28 @@
         <v>40</v>
       </c>
       <c r="E103">
-        <v>1198</v>
+        <v>384</v>
       </c>
       <c r="F103">
-        <v>-1522</v>
+        <v>40</v>
       </c>
       <c r="G103">
-        <v>0.5041736227045075</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H103">
+        <v>0.2</v>
+      </c>
+      <c r="I103">
+        <v>1197</v>
+      </c>
+      <c r="J103">
+        <v>-1512</v>
+      </c>
+      <c r="K103">
+        <v>0.504594820384294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2781,16 +4029,28 @@
         <v>40</v>
       </c>
       <c r="E104">
-        <v>926</v>
+        <v>384</v>
       </c>
       <c r="F104">
-        <v>7020</v>
+        <v>40</v>
       </c>
       <c r="G104">
-        <v>0.5053995680345572</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H104">
+        <v>0.2</v>
+      </c>
+      <c r="I104">
+        <v>925</v>
+      </c>
+      <c r="J104">
+        <v>7030</v>
+      </c>
+      <c r="K104">
+        <v>0.505945945945946</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2804,16 +4064,28 @@
         <v>40</v>
       </c>
       <c r="E105">
-        <v>726</v>
+        <v>384</v>
       </c>
       <c r="F105">
-        <v>5648</v>
+        <v>40</v>
       </c>
       <c r="G105">
-        <v>0.4848484848484849</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H105">
+        <v>0.2</v>
+      </c>
+      <c r="I105">
+        <v>725</v>
+      </c>
+      <c r="J105">
+        <v>5658</v>
+      </c>
+      <c r="K105">
+        <v>0.4855172413793103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2827,16 +4099,28 @@
         <v>40</v>
       </c>
       <c r="E106">
-        <v>585</v>
+        <v>384</v>
       </c>
       <c r="F106">
-        <v>1766</v>
+        <v>40</v>
       </c>
       <c r="G106">
-        <v>0.464957264957265</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H106">
+        <v>0.2</v>
+      </c>
+      <c r="I106">
+        <v>584</v>
+      </c>
+      <c r="J106">
+        <v>1776</v>
+      </c>
+      <c r="K106">
+        <v>0.4657534246575342</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2850,16 +4134,28 @@
         <v>40</v>
       </c>
       <c r="E107">
-        <v>481</v>
+        <v>384</v>
       </c>
       <c r="F107">
-        <v>6714</v>
+        <v>40</v>
       </c>
       <c r="G107">
-        <v>0.4823284823284824</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H107">
+        <v>0.2</v>
+      </c>
+      <c r="I107">
+        <v>480</v>
+      </c>
+      <c r="J107">
+        <v>6724</v>
+      </c>
+      <c r="K107">
+        <v>0.4833333333333333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2873,16 +4169,28 @@
         <v>40</v>
       </c>
       <c r="E108">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="F108">
-        <v>-3476</v>
+        <v>40</v>
       </c>
       <c r="G108">
-        <v>0.4306569343065693</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H108">
+        <v>0.2</v>
+      </c>
+      <c r="I108">
+        <v>410</v>
+      </c>
+      <c r="J108">
+        <v>-3466</v>
+      </c>
+      <c r="K108">
+        <v>0.4317073170731707</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2896,16 +4204,28 @@
         <v>40</v>
       </c>
       <c r="E109">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="F109">
-        <v>2914</v>
+        <v>40</v>
       </c>
       <c r="G109">
-        <v>0.4838709677419355</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H109">
+        <v>0.2</v>
+      </c>
+      <c r="I109">
+        <v>340</v>
+      </c>
+      <c r="J109">
+        <v>2924</v>
+      </c>
+      <c r="K109">
+        <v>0.4852941176470588</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2919,16 +4239,28 @@
         <v>40</v>
       </c>
       <c r="E110">
-        <v>2193</v>
+        <v>384</v>
       </c>
       <c r="F110">
-        <v>3590</v>
+        <v>40</v>
       </c>
       <c r="G110">
-        <v>0.5430916552667578</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H110">
+        <v>0.2</v>
+      </c>
+      <c r="I110">
+        <v>2192</v>
+      </c>
+      <c r="J110">
+        <v>3600</v>
+      </c>
+      <c r="K110">
+        <v>0.5433394160583942</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2942,16 +4274,28 @@
         <v>40</v>
       </c>
       <c r="E111">
-        <v>1582</v>
+        <v>384</v>
       </c>
       <c r="F111">
-        <v>2970</v>
+        <v>40</v>
       </c>
       <c r="G111">
-        <v>0.5398230088495575</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H111">
+        <v>0.2</v>
+      </c>
+      <c r="I111">
+        <v>1581</v>
+      </c>
+      <c r="J111">
+        <v>2980</v>
+      </c>
+      <c r="K111">
+        <v>0.5401644528779254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2965,16 +4309,28 @@
         <v>40</v>
       </c>
       <c r="E112">
-        <v>1205</v>
+        <v>384</v>
       </c>
       <c r="F112">
-        <v>-3006</v>
+        <v>40</v>
       </c>
       <c r="G112">
-        <v>0.5078838174273859</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H112">
+        <v>0.2</v>
+      </c>
+      <c r="I112">
+        <v>1204</v>
+      </c>
+      <c r="J112">
+        <v>-2996</v>
+      </c>
+      <c r="K112">
+        <v>0.5083056478405316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2988,16 +4344,28 @@
         <v>40</v>
       </c>
       <c r="E113">
-        <v>920</v>
+        <v>384</v>
       </c>
       <c r="F113">
-        <v>5986</v>
+        <v>40</v>
       </c>
       <c r="G113">
-        <v>0.5032608695652174</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H113">
+        <v>0.2</v>
+      </c>
+      <c r="I113">
+        <v>919</v>
+      </c>
+      <c r="J113">
+        <v>5996</v>
+      </c>
+      <c r="K113">
+        <v>0.5038084874863983</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3011,16 +4379,28 @@
         <v>40</v>
       </c>
       <c r="E114">
-        <v>726</v>
+        <v>384</v>
       </c>
       <c r="F114">
-        <v>9508</v>
+        <v>40</v>
       </c>
       <c r="G114">
-        <v>0.4793388429752066</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H114">
+        <v>0.2</v>
+      </c>
+      <c r="I114">
+        <v>725</v>
+      </c>
+      <c r="J114">
+        <v>9518</v>
+      </c>
+      <c r="K114">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3034,16 +4414,28 @@
         <v>40</v>
       </c>
       <c r="E115">
-        <v>583</v>
+        <v>384</v>
       </c>
       <c r="F115">
-        <v>6380</v>
+        <v>40</v>
       </c>
       <c r="G115">
-        <v>0.4905660377358491</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H115">
+        <v>0.2</v>
+      </c>
+      <c r="I115">
+        <v>582</v>
+      </c>
+      <c r="J115">
+        <v>6390</v>
+      </c>
+      <c r="K115">
+        <v>0.4914089347079038</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3057,16 +4449,28 @@
         <v>40</v>
       </c>
       <c r="E116">
-        <v>487</v>
+        <v>384</v>
       </c>
       <c r="F116">
-        <v>6302</v>
+        <v>40</v>
       </c>
       <c r="G116">
-        <v>0.4620123203285421</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H116">
+        <v>0.2</v>
+      </c>
+      <c r="I116">
+        <v>486</v>
+      </c>
+      <c r="J116">
+        <v>6312</v>
+      </c>
+      <c r="K116">
+        <v>0.462962962962963</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3080,16 +4484,28 @@
         <v>40</v>
       </c>
       <c r="E117">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="F117">
-        <v>-2904</v>
+        <v>40</v>
       </c>
       <c r="G117">
-        <v>0.4346793349168646</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H117">
+        <v>0.2</v>
+      </c>
+      <c r="I117">
+        <v>420</v>
+      </c>
+      <c r="J117">
+        <v>-2894</v>
+      </c>
+      <c r="K117">
+        <v>0.4357142857142857</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3103,16 +4519,28 @@
         <v>40</v>
       </c>
       <c r="E118">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="F118">
-        <v>5668</v>
+        <v>40</v>
       </c>
       <c r="G118">
-        <v>0.4778761061946903</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H118">
+        <v>0.2</v>
+      </c>
+      <c r="I118">
+        <v>338</v>
+      </c>
+      <c r="J118">
+        <v>5678</v>
+      </c>
+      <c r="K118">
+        <v>0.4792899408284024</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3126,16 +4554,28 @@
         <v>40</v>
       </c>
       <c r="E119">
-        <v>2195</v>
+        <v>384</v>
       </c>
       <c r="F119">
-        <v>4736</v>
+        <v>40</v>
       </c>
       <c r="G119">
-        <v>0.5498861047835991</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H119">
+        <v>0.2</v>
+      </c>
+      <c r="I119">
+        <v>2194</v>
+      </c>
+      <c r="J119">
+        <v>4746</v>
+      </c>
+      <c r="K119">
+        <v>0.5501367365542388</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3149,16 +4589,28 @@
         <v>40</v>
       </c>
       <c r="E120">
-        <v>1573</v>
+        <v>384</v>
       </c>
       <c r="F120">
-        <v>2552</v>
+        <v>40</v>
       </c>
       <c r="G120">
-        <v>0.5378258105530833</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H120">
+        <v>0.2</v>
+      </c>
+      <c r="I120">
+        <v>1572</v>
+      </c>
+      <c r="J120">
+        <v>2562</v>
+      </c>
+      <c r="K120">
+        <v>0.5381679389312977</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3172,16 +4624,28 @@
         <v>40</v>
       </c>
       <c r="E121">
-        <v>1207</v>
+        <v>384</v>
       </c>
       <c r="F121">
-        <v>-2946</v>
+        <v>40</v>
       </c>
       <c r="G121">
-        <v>0.5070422535211268</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H121">
+        <v>0.2</v>
+      </c>
+      <c r="I121">
+        <v>1206</v>
+      </c>
+      <c r="J121">
+        <v>-2936</v>
+      </c>
+      <c r="K121">
+        <v>0.5074626865671642</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3195,16 +4659,28 @@
         <v>40</v>
       </c>
       <c r="E122">
-        <v>926</v>
+        <v>384</v>
       </c>
       <c r="F122">
-        <v>5728</v>
+        <v>40</v>
       </c>
       <c r="G122">
-        <v>0.5032397408207343</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H122">
+        <v>0.2</v>
+      </c>
+      <c r="I122">
+        <v>925</v>
+      </c>
+      <c r="J122">
+        <v>5738</v>
+      </c>
+      <c r="K122">
+        <v>0.5037837837837837</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3218,16 +4694,28 @@
         <v>40</v>
       </c>
       <c r="E123">
-        <v>726</v>
+        <v>384</v>
       </c>
       <c r="F123">
-        <v>9126</v>
+        <v>40</v>
       </c>
       <c r="G123">
-        <v>0.4972451790633609</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H123">
+        <v>0.2</v>
+      </c>
+      <c r="I123">
+        <v>725</v>
+      </c>
+      <c r="J123">
+        <v>9136</v>
+      </c>
+      <c r="K123">
+        <v>0.4979310344827586</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3241,16 +4729,28 @@
         <v>40</v>
       </c>
       <c r="E124">
-        <v>581</v>
+        <v>384</v>
       </c>
       <c r="F124">
-        <v>7020</v>
+        <v>40</v>
       </c>
       <c r="G124">
-        <v>0.5008605851979346</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H124">
+        <v>0.2</v>
+      </c>
+      <c r="I124">
+        <v>580</v>
+      </c>
+      <c r="J124">
+        <v>7030</v>
+      </c>
+      <c r="K124">
+        <v>0.5017241379310344</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3264,16 +4764,28 @@
         <v>40</v>
       </c>
       <c r="E125">
-        <v>493</v>
+        <v>384</v>
       </c>
       <c r="F125">
-        <v>8876</v>
+        <v>40</v>
       </c>
       <c r="G125">
-        <v>0.4726166328600406</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H125">
+        <v>0.2</v>
+      </c>
+      <c r="I125">
+        <v>492</v>
+      </c>
+      <c r="J125">
+        <v>8886</v>
+      </c>
+      <c r="K125">
+        <v>0.4735772357723577</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3287,16 +4799,28 @@
         <v>40</v>
       </c>
       <c r="E126">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="F126">
-        <v>-1334</v>
+        <v>40</v>
       </c>
       <c r="G126">
-        <v>0.4423529411764706</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H126">
+        <v>0.2</v>
+      </c>
+      <c r="I126">
+        <v>424</v>
+      </c>
+      <c r="J126">
+        <v>-1324</v>
+      </c>
+      <c r="K126">
+        <v>0.4433962264150944</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3310,16 +4834,28 @@
         <v>40</v>
       </c>
       <c r="E127">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="F127">
-        <v>6246</v>
+        <v>40</v>
       </c>
       <c r="G127">
-        <v>0.4635568513119533</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H127">
+        <v>0.2</v>
+      </c>
+      <c r="I127">
+        <v>342</v>
+      </c>
+      <c r="J127">
+        <v>6256</v>
+      </c>
+      <c r="K127">
+        <v>0.4649122807017544</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3333,16 +4869,28 @@
         <v>40</v>
       </c>
       <c r="E128">
-        <v>2201</v>
+        <v>384</v>
       </c>
       <c r="F128">
-        <v>4448</v>
+        <v>40</v>
       </c>
       <c r="G128">
-        <v>0.5415720127214902</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H128">
+        <v>0.2</v>
+      </c>
+      <c r="I128">
+        <v>2200</v>
+      </c>
+      <c r="J128">
+        <v>4458</v>
+      </c>
+      <c r="K128">
+        <v>0.5418181818181819</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3356,16 +4904,28 @@
         <v>40</v>
       </c>
       <c r="E129">
-        <v>1575</v>
+        <v>384</v>
       </c>
       <c r="F129">
-        <v>3572</v>
+        <v>40</v>
       </c>
       <c r="G129">
-        <v>0.539047619047619</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H129">
+        <v>0.2</v>
+      </c>
+      <c r="I129">
+        <v>1574</v>
+      </c>
+      <c r="J129">
+        <v>3582</v>
+      </c>
+      <c r="K129">
+        <v>0.5393900889453621</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3379,16 +4939,28 @@
         <v>40</v>
       </c>
       <c r="E130">
-        <v>1217</v>
+        <v>384</v>
       </c>
       <c r="F130">
-        <v>-830</v>
+        <v>40</v>
       </c>
       <c r="G130">
-        <v>0.514379622021364</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H130">
+        <v>0.2</v>
+      </c>
+      <c r="I130">
+        <v>1216</v>
+      </c>
+      <c r="J130">
+        <v>-820</v>
+      </c>
+      <c r="K130">
+        <v>0.5148026315789473</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3402,16 +4974,28 @@
         <v>40</v>
       </c>
       <c r="E131">
-        <v>936</v>
+        <v>384</v>
       </c>
       <c r="F131">
-        <v>6330</v>
+        <v>40</v>
       </c>
       <c r="G131">
-        <v>0.4978632478632479</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H131">
+        <v>0.2</v>
+      </c>
+      <c r="I131">
+        <v>935</v>
+      </c>
+      <c r="J131">
+        <v>6340</v>
+      </c>
+      <c r="K131">
+        <v>0.4983957219251337</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3425,16 +5009,28 @@
         <v>40</v>
       </c>
       <c r="E132">
-        <v>722</v>
+        <v>384</v>
       </c>
       <c r="F132">
-        <v>10466</v>
+        <v>40</v>
       </c>
       <c r="G132">
-        <v>0.502770083102493</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H132">
+        <v>0.2</v>
+      </c>
+      <c r="I132">
+        <v>721</v>
+      </c>
+      <c r="J132">
+        <v>10476</v>
+      </c>
+      <c r="K132">
+        <v>0.5034674063800277</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3448,16 +5044,28 @@
         <v>40</v>
       </c>
       <c r="E133">
-        <v>587</v>
+        <v>384</v>
       </c>
       <c r="F133">
-        <v>7226</v>
+        <v>40</v>
       </c>
       <c r="G133">
-        <v>0.4923339011925043</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H133">
+        <v>0.2</v>
+      </c>
+      <c r="I133">
+        <v>586</v>
+      </c>
+      <c r="J133">
+        <v>7236</v>
+      </c>
+      <c r="K133">
+        <v>0.4931740614334471</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3471,16 +5079,28 @@
         <v>40</v>
       </c>
       <c r="E134">
-        <v>495</v>
+        <v>384</v>
       </c>
       <c r="F134">
-        <v>8936</v>
+        <v>40</v>
       </c>
       <c r="G134">
-        <v>0.4787878787878788</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H134">
+        <v>0.2</v>
+      </c>
+      <c r="I134">
+        <v>494</v>
+      </c>
+      <c r="J134">
+        <v>8946</v>
+      </c>
+      <c r="K134">
+        <v>0.4797570850202429</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3494,16 +5114,28 @@
         <v>40</v>
       </c>
       <c r="E135">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="F135">
-        <v>-236</v>
+        <v>40</v>
       </c>
       <c r="G135">
-        <v>0.4592074592074592</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H135">
+        <v>0.2</v>
+      </c>
+      <c r="I135">
+        <v>428</v>
+      </c>
+      <c r="J135">
+        <v>-226</v>
+      </c>
+      <c r="K135">
+        <v>0.4602803738317757</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3517,16 +5149,28 @@
         <v>40</v>
       </c>
       <c r="E136">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="F136">
-        <v>7552</v>
+        <v>40</v>
       </c>
       <c r="G136">
-        <v>0.476056338028169</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H136">
+        <v>0.2</v>
+      </c>
+      <c r="I136">
+        <v>354</v>
+      </c>
+      <c r="J136">
+        <v>7562</v>
+      </c>
+      <c r="K136">
+        <v>0.4774011299435028</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3540,16 +5184,28 @@
         <v>40</v>
       </c>
       <c r="E137">
-        <v>2199</v>
+        <v>384</v>
       </c>
       <c r="F137">
-        <v>3536</v>
+        <v>40</v>
       </c>
       <c r="G137">
-        <v>0.5379718053660755</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H137">
+        <v>0.2</v>
+      </c>
+      <c r="I137">
+        <v>2198</v>
+      </c>
+      <c r="J137">
+        <v>3546</v>
+      </c>
+      <c r="K137">
+        <v>0.5382165605095541</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3563,16 +5219,28 @@
         <v>40</v>
       </c>
       <c r="E138">
-        <v>1571</v>
+        <v>384</v>
       </c>
       <c r="F138">
-        <v>3098</v>
+        <v>40</v>
       </c>
       <c r="G138">
-        <v>0.5346912794398472</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H138">
+        <v>0.2</v>
+      </c>
+      <c r="I138">
+        <v>1570</v>
+      </c>
+      <c r="J138">
+        <v>3108</v>
+      </c>
+      <c r="K138">
+        <v>0.535031847133758</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3586,16 +5254,28 @@
         <v>40</v>
       </c>
       <c r="E139">
-        <v>1215</v>
+        <v>384</v>
       </c>
       <c r="F139">
-        <v>-2</v>
+        <v>40</v>
       </c>
       <c r="G139">
-        <v>0.5168724279835391</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H139">
+        <v>0.2</v>
+      </c>
+      <c r="I139">
+        <v>1214</v>
+      </c>
+      <c r="J139">
+        <v>8</v>
+      </c>
+      <c r="K139">
+        <v>0.5172981878088962</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3609,16 +5289,28 @@
         <v>40</v>
       </c>
       <c r="E140">
-        <v>938</v>
+        <v>384</v>
       </c>
       <c r="F140">
-        <v>4344</v>
+        <v>40</v>
       </c>
       <c r="G140">
-        <v>0.488272921108742</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H140">
+        <v>0.2</v>
+      </c>
+      <c r="I140">
+        <v>937</v>
+      </c>
+      <c r="J140">
+        <v>4354</v>
+      </c>
+      <c r="K140">
+        <v>0.4887940234791889</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3632,16 +5324,28 @@
         <v>40</v>
       </c>
       <c r="E141">
-        <v>728</v>
+        <v>384</v>
       </c>
       <c r="F141">
-        <v>11050</v>
+        <v>40</v>
       </c>
       <c r="G141">
-        <v>0.5096153846153846</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H141">
+        <v>0.2</v>
+      </c>
+      <c r="I141">
+        <v>727</v>
+      </c>
+      <c r="J141">
+        <v>11060</v>
+      </c>
+      <c r="K141">
+        <v>0.5103163686382394</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3655,16 +5359,28 @@
         <v>40</v>
       </c>
       <c r="E142">
-        <v>599</v>
+        <v>384</v>
       </c>
       <c r="F142">
-        <v>4788</v>
+        <v>40</v>
       </c>
       <c r="G142">
-        <v>0.4757929883138564</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H142">
+        <v>0.2</v>
+      </c>
+      <c r="I142">
+        <v>598</v>
+      </c>
+      <c r="J142">
+        <v>4798</v>
+      </c>
+      <c r="K142">
+        <v>0.4765886287625418</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3678,16 +5394,28 @@
         <v>40</v>
       </c>
       <c r="E143">
-        <v>489</v>
+        <v>384</v>
       </c>
       <c r="F143">
-        <v>8910</v>
+        <v>40</v>
       </c>
       <c r="G143">
-        <v>0.4642126789366053</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H143">
+        <v>0.2</v>
+      </c>
+      <c r="I143">
+        <v>488</v>
+      </c>
+      <c r="J143">
+        <v>8920</v>
+      </c>
+      <c r="K143">
+        <v>0.4651639344262295</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3701,16 +5429,28 @@
         <v>40</v>
       </c>
       <c r="E144">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="F144">
-        <v>-260</v>
+        <v>40</v>
       </c>
       <c r="G144">
-        <v>0.4355971896955503</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H144">
+        <v>0.2</v>
+      </c>
+      <c r="I144">
+        <v>426</v>
+      </c>
+      <c r="J144">
+        <v>-250</v>
+      </c>
+      <c r="K144">
+        <v>0.4366197183098591</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3724,16 +5464,28 @@
         <v>40</v>
       </c>
       <c r="E145">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="F145">
-        <v>4294</v>
+        <v>40</v>
       </c>
       <c r="G145">
-        <v>0.4676056338028169</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H145">
+        <v>0.2</v>
+      </c>
+      <c r="I145">
+        <v>354</v>
+      </c>
+      <c r="J145">
+        <v>4304</v>
+      </c>
+      <c r="K145">
+        <v>0.4689265536723164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3747,16 +5499,28 @@
         <v>40</v>
       </c>
       <c r="E146">
-        <v>2207</v>
+        <v>384</v>
       </c>
       <c r="F146">
-        <v>2084</v>
+        <v>40</v>
       </c>
       <c r="G146">
-        <v>0.539193475305845</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H146">
+        <v>0.2</v>
+      </c>
+      <c r="I146">
+        <v>2206</v>
+      </c>
+      <c r="J146">
+        <v>2094</v>
+      </c>
+      <c r="K146">
+        <v>0.5394378966455122</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3770,16 +5534,28 @@
         <v>40</v>
       </c>
       <c r="E147">
-        <v>1577</v>
+        <v>384</v>
       </c>
       <c r="F147">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="G147">
-        <v>0.5339251743817375</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H147">
+        <v>0.2</v>
+      </c>
+      <c r="I147">
+        <v>1576</v>
+      </c>
+      <c r="J147">
+        <v>330</v>
+      </c>
+      <c r="K147">
+        <v>0.5342639593908629</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3793,16 +5569,28 @@
         <v>40</v>
       </c>
       <c r="E148">
-        <v>1217</v>
+        <v>384</v>
       </c>
       <c r="F148">
-        <v>-902</v>
+        <v>40</v>
       </c>
       <c r="G148">
-        <v>0.5053410024650781</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H148">
+        <v>0.2</v>
+      </c>
+      <c r="I148">
+        <v>1216</v>
+      </c>
+      <c r="J148">
+        <v>-892</v>
+      </c>
+      <c r="K148">
+        <v>0.5057565789473685</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3816,16 +5604,28 @@
         <v>40</v>
       </c>
       <c r="E149">
-        <v>940</v>
+        <v>384</v>
       </c>
       <c r="F149">
-        <v>4800</v>
+        <v>40</v>
       </c>
       <c r="G149">
-        <v>0.4925531914893617</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H149">
+        <v>0.2</v>
+      </c>
+      <c r="I149">
+        <v>939</v>
+      </c>
+      <c r="J149">
+        <v>4810</v>
+      </c>
+      <c r="K149">
+        <v>0.4930777422790202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3839,16 +5639,28 @@
         <v>40</v>
       </c>
       <c r="E150">
-        <v>730</v>
+        <v>384</v>
       </c>
       <c r="F150">
-        <v>11362</v>
+        <v>40</v>
       </c>
       <c r="G150">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H150">
+        <v>0.2</v>
+      </c>
+      <c r="I150">
+        <v>729</v>
+      </c>
+      <c r="J150">
+        <v>11372</v>
+      </c>
+      <c r="K150">
+        <v>0.5006858710562414</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3862,16 +5674,28 @@
         <v>40</v>
       </c>
       <c r="E151">
-        <v>597</v>
+        <v>384</v>
       </c>
       <c r="F151">
-        <v>5510</v>
+        <v>40</v>
       </c>
       <c r="G151">
-        <v>0.4690117252931323</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H151">
+        <v>0.2</v>
+      </c>
+      <c r="I151">
+        <v>596</v>
+      </c>
+      <c r="J151">
+        <v>5520</v>
+      </c>
+      <c r="K151">
+        <v>0.4697986577181208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3885,16 +5709,28 @@
         <v>40</v>
       </c>
       <c r="E152">
-        <v>493</v>
+        <v>384</v>
       </c>
       <c r="F152">
-        <v>10372</v>
+        <v>40</v>
       </c>
       <c r="G152">
-        <v>0.4584178498985801</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H152">
+        <v>0.2</v>
+      </c>
+      <c r="I152">
+        <v>492</v>
+      </c>
+      <c r="J152">
+        <v>10382</v>
+      </c>
+      <c r="K152">
+        <v>0.459349593495935</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3908,16 +5744,28 @@
         <v>40</v>
       </c>
       <c r="E153">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="F153">
-        <v>1676</v>
+        <v>40</v>
       </c>
       <c r="G153">
-        <v>0.4349881796690308</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H153">
+        <v>0.2</v>
+      </c>
+      <c r="I153">
+        <v>422</v>
+      </c>
+      <c r="J153">
+        <v>1686</v>
+      </c>
+      <c r="K153">
+        <v>0.4360189573459716</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3931,13 +5779,25 @@
         <v>40</v>
       </c>
       <c r="E154">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="F154">
-        <v>4578</v>
+        <v>40</v>
       </c>
       <c r="G154">
-        <v>0.4649859943977591</v>
+        <v>40</v>
+      </c>
+      <c r="H154">
+        <v>0.2</v>
+      </c>
+      <c r="I154">
+        <v>356</v>
+      </c>
+      <c r="J154">
+        <v>4588</v>
+      </c>
+      <c r="K154">
+        <v>0.4662921348314606</v>
       </c>
     </row>
   </sheetData>
